--- a/biology/Zoologie/Bibio_major/Bibio_major.xlsx
+++ b/biology/Zoologie/Bibio_major/Bibio_major.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bibio inflexus, Penthetria major, Plecia major
 Bibio major est une espèce fossile d'insecte diptère, de la famille des Bibionidae, de la sous-famille des Bibioninae et du genre Bibio.
@@ -512,18 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Plecia major est publiée par le zoologiste français Émile Oustalet (1844-1905) en 1870[1],[2]. L'holotype et les cotypes des collections de M. Fouilhoux et Lecocq viennent de la commune de Corent dans le département du Puy-de-Dôme en Auvergne, dans la couronne de Clermont-Ferrand. Un exemplaire R06693 est conservé au Muséum national d'histoire naturelle de Paris[3].
-L'espèce Bibio inflexus est publiée par Nicolas Théobald en 1937[4],[2]. L'Holotype F269 ♂ et F273+274 ♀ de la collection Fliche de l'école nationale des eaux et forêts de Nancy viennent de la commune de Céreste dans les Basses-Alpes.
-Changements de genre
-L'espèce Plecia major est renommée Penthetria major par Neal Luit Evenhuis en 1994[5].
-L'espèce Penthetria major est renommée Bibio major en même temps que Bibio inflexus est déclarée synonyme par John Skartveit et André Nel en 2017[6],[2].
-Ceux-ci référencent la cinquième et dernière collection de fossiles du PNR du Luberon, venant de Céreste[2].
-Âge des fossiles
-Selon Paleobiology Database en 2023, ces cinq collections de fossiles sont du Rupélien ou Oligocène inférieur soit de 33,9 à 28,4 Ma[2].
-Étymologie
-L'épithète spécifique major signifie en latin « majeure » et inflexus signifie en latin « penchée ». 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Plecia major est publiée par le zoologiste français Émile Oustalet (1844-1905) en 1870,. L'holotype et les cotypes des collections de M. Fouilhoux et Lecocq viennent de la commune de Corent dans le département du Puy-de-Dôme en Auvergne, dans la couronne de Clermont-Ferrand. Un exemplaire R06693 est conservé au Muséum national d'histoire naturelle de Paris.
+L'espèce Bibio inflexus est publiée par Nicolas Théobald en 1937,. L'Holotype F269 ♂ et F273+274 ♀ de la collection Fliche de l'école nationale des eaux et forêts de Nancy viennent de la commune de Céreste dans les Basses-Alpes.
 </t>
         </is>
       </c>
@@ -549,21 +555,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[4],[note 1] : Bibio inflexus mâle ♂
-« Tête et thorax noirs, abdomen brun noirâtre, ailes dépassant l'extrémité de l'abdomen. Tête inclinée, yeux de forme ovale, fragments d'antennes formées d'articles cylindriques et courts. Thorax plus haut que long, pronotum court, mésonotum fortement gibbeux ; scutellum arrondi, métanotum court. Abdomen grêle, contracté vers l'arrière, légèrement incurvé, le dernier sommet porte les appendices génitaux mâle. Pattes fortes. Balanciers à tige moyenne, massue pyriforme. Ailes à stigma brun, seule la partie antérieur des nervures est conservée, type Bibio. »[4].
-Bibio inflexus femelle ♀
-« Cet insecte montre comme le précédent une tête noire, le thorax noir, l'abdomen brunâtre ; yeux séparés ; thorax large ; abdomen de forme ovoïde. Les pattes ont une teinte brune et sont fortes. les balanciers ont une tige moyenne. Les ailes, à stigma brun, dépassent l'abdomen. La taille est de 7,5 mm. Tous ces caractères correspondent à ceux de la forme précédente. »[4].
-Dimensions
-La longueur du corps est de 7,5 mm[4].
-Affinités
-« L'Insecte représente probablement le sexe ♂ correspondant à la forme suivante. »[4].
-« Par la taille et la forme, B. inflexus ♀ se rapproche de B. conformans d'Aix, mais dans B. inflexus les ailes sont relativement plus longues que dans B. conformans. »[4].
+          <t>Changements de genre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Plecia major est renommée Penthetria major par Neal Luit Evenhuis en 1994.
+L'espèce Penthetria major est renommée Bibio major en même temps que Bibio inflexus est déclarée synonyme par John Skartveit et André Nel en 2017,.
+Ceux-ci référencent la cinquième et dernière collection de fossiles du PNR du Luberon, venant de Céreste.
 </t>
         </is>
       </c>
@@ -589,13 +594,206 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Âge des fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, ces cinq collections de fossiles sont du Rupélien ou Oligocène inférieur soit de 33,9 à 28,4 Ma.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bibio_major</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_major</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique major signifie en latin « majeure » et inflexus signifie en latin « penchée ». 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bibio_major</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_major</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : Bibio inflexus mâle ♂
+« Tête et thorax noirs, abdomen brun noirâtre, ailes dépassant l'extrémité de l'abdomen. Tête inclinée, yeux de forme ovale, fragments d'antennes formées d'articles cylindriques et courts. Thorax plus haut que long, pronotum court, mésonotum fortement gibbeux ; scutellum arrondi, métanotum court. Abdomen grêle, contracté vers l'arrière, légèrement incurvé, le dernier sommet porte les appendices génitaux mâle. Pattes fortes. Balanciers à tige moyenne, massue pyriforme. Ailes à stigma brun, seule la partie antérieur des nervures est conservée, type Bibio. ».
+Bibio inflexus femelle ♀
+« Cet insecte montre comme le précédent une tête noire, le thorax noir, l'abdomen brunâtre ; yeux séparés ; thorax large ; abdomen de forme ovoïde. Les pattes ont une teinte brune et sont fortes. les balanciers ont une tige moyenne. Les ailes, à stigma brun, dépassent l'abdomen. La taille est de 7,5 mm. Tous ces caractères correspondent à ceux de la forme précédente. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bibio_major</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_major</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur du corps est de 7,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bibio_major</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_major</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'Insecte représente probablement le sexe ♂ correspondant à la forme suivante. ».
+« Par la taille et la forme, B. inflexus ♀ se rapproche de B. conformans d'Aix, mais dans B. inflexus les ailes sont relativement plus longues que dans B. conformans. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bibio_major</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_major</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Bibionidés vivaient "par légions" dans les forêts marécageuses[7].
-« Le g. Bibio est universellement répandu. Il vit sur les plantes ; les larves se développent dans la terre, dans les déchets des animaux ou dans les débris végétaux. »[8].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bibionidés vivaient "par légions" dans les forêts marécageuses.
+« Le g. Bibio est universellement répandu. Il vit sur les plantes ; les larves se développent dans la terre, dans les déchets des animaux ou dans les débris végétaux. ».
 </t>
         </is>
       </c>
